--- a/test/xls/LanguageStatic.xlsx
+++ b/test/xls/LanguageStatic.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun/repos/innovision/ConfigTool/test/xls/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="LanguageStatic" sheetId="5" r:id="rId1"/>
     <sheet name="DialogStatic" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
   <si>
     <t>取消</t>
   </si>
@@ -143,31 +156,49 @@
   <si>
     <t>id(LanguageStatic)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test 1</t>
+  </si>
+  <si>
+    <t>test 2</t>
+  </si>
+  <si>
+    <t>测试 1</t>
+  </si>
+  <si>
+    <t>测试 2</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>你好</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -175,9 +206,25 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -198,11 +245,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -224,9 +273,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -240,7 +298,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -282,12 +340,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -317,12 +375,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -526,20 +584,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -548,7 +606,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -557,7 +615,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -566,7 +624,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -580,7 +638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -592,7 +650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -606,7 +664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -620,7 +678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -634,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -648,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -662,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>101</v>
       </c>
@@ -673,7 +731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>102</v>
       </c>
@@ -684,7 +742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>103</v>
       </c>
@@ -695,7 +753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>104</v>
       </c>
@@ -704,11 +762,133 @@
       </c>
       <c r="D14" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>100001</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>100002</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="11">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="11">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>10003</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>10004</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>10005</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>20001</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>20002</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>10001</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>10002</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -716,19 +896,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -738,7 +918,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -748,7 +928,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -758,7 +938,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -775,7 +955,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -790,7 +970,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -807,7 +987,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -824,7 +1004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -841,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -858,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
